--- a/experiments/nrp_sat_scl_exp_results.xlsx
+++ b/experiments/nrp_sat_scl_exp_results.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0284729</v>
+        <v>0.0284412</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H2" t="n">
         <v>10478</v>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0296318</v>
+        <v>0.0284271</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>7.2</v>
       </c>
       <c r="H3" t="n">
         <v>10478</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0285139</v>
+        <v>0.0284417</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H4" t="n">
         <v>10478</v>
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0284286</v>
+        <v>0.0284474</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="H5" t="n">
         <v>10478</v>
@@ -614,7 +614,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0284704</v>
+        <v>0.0284267</v>
       </c>
       <c r="G6" t="n">
         <v>7.3</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0285033</v>
+        <v>0.0284396</v>
       </c>
       <c r="G7" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H7" t="n">
         <v>10478</v>
@@ -676,7 +676,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0284699</v>
+        <v>0.0284707</v>
       </c>
       <c r="G8" t="n">
         <v>7.3</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0284467</v>
+        <v>0.0284815</v>
       </c>
       <c r="G9" t="n">
-        <v>7.4</v>
+        <v>4.9</v>
       </c>
       <c r="H9" t="n">
         <v>10478</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0284936</v>
+        <v>0.0284781</v>
       </c>
       <c r="G10" t="n">
-        <v>7.1</v>
+        <v>4.9</v>
       </c>
       <c r="H10" t="n">
         <v>10478</v>
@@ -769,7 +769,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0285145</v>
+        <v>0.0284429</v>
       </c>
       <c r="G11" t="n">
         <v>7.3</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02859456</v>
+        <v>0.02844969</v>
       </c>
       <c r="G12" t="n">
-        <v>7.02</v>
+        <v>6.76</v>
       </c>
       <c r="H12" t="n">
         <v>10478</v>
@@ -899,7 +899,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0391655</v>
+        <v>0.039038</v>
       </c>
       <c r="G2" t="n">
         <v>7.3</v>
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0380738</v>
+        <v>0.0391257</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>4.8</v>
       </c>
       <c r="H3" t="n">
         <v>18297</v>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0381504</v>
+        <v>0.0391305</v>
       </c>
       <c r="G4" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H4" t="n">
         <v>18297</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0380761</v>
+        <v>0.0391746</v>
       </c>
       <c r="G5" t="n">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>18297</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0380938</v>
+        <v>0.0391025</v>
       </c>
       <c r="G6" t="n">
-        <v>7.2</v>
+        <v>4.9</v>
       </c>
       <c r="H6" t="n">
         <v>18297</v>
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0381065</v>
+        <v>0.0381282</v>
       </c>
       <c r="G7" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H7" t="n">
         <v>18297</v>
@@ -1085,7 +1085,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0391415</v>
+        <v>0.0391789</v>
       </c>
       <c r="G8" t="n">
         <v>7.3</v>
@@ -1116,7 +1116,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0379948</v>
+        <v>0.0380992</v>
       </c>
       <c r="G9" t="n">
         <v>7.3</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0392215</v>
+        <v>0.039116</v>
       </c>
       <c r="G10" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
         <v>18297</v>
@@ -1178,7 +1178,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0380657</v>
+        <v>0.0391796</v>
       </c>
       <c r="G11" t="n">
         <v>7.3</v>
@@ -1211,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03840896</v>
+        <v>0.03892731999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>7.239999999999999</v>
+        <v>6.069999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>18297</v>
@@ -1308,7 +1308,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0487829</v>
+        <v>0.0476556</v>
       </c>
       <c r="G2" t="n">
         <v>7.2</v>
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0487113</v>
+        <v>0.047648</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H3" t="n">
         <v>24927</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0488002</v>
+        <v>0.0476859</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="H4" t="n">
         <v>24927</v>
@@ -1401,7 +1401,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0476529</v>
+        <v>0.0487947</v>
       </c>
       <c r="G5" t="n">
         <v>7.3</v>
@@ -1432,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0476737</v>
+        <v>0.0487122</v>
       </c>
       <c r="G6" t="n">
         <v>7.3</v>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0487502</v>
+        <v>0.0498972</v>
       </c>
       <c r="G7" t="n">
         <v>7.3</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0497845</v>
+        <v>0.0476202</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="H8" t="n">
         <v>24927</v>
@@ -1525,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0476681</v>
+        <v>0.0486506</v>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H9" t="n">
         <v>24927</v>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0488357</v>
+        <v>0.0487429</v>
       </c>
       <c r="G10" t="n">
-        <v>7.1</v>
+        <v>7.3</v>
       </c>
       <c r="H10" t="n">
         <v>24927</v>
@@ -1587,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0476226</v>
+        <v>0.0476622</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="H11" t="n">
         <v>24927</v>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04842821</v>
+        <v>0.04830695</v>
       </c>
       <c r="G12" t="n">
-        <v>6.779999999999999</v>
+        <v>7.040000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>24927</v>
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0594813</v>
+        <v>0.0583064</v>
       </c>
       <c r="G2" t="n">
-        <v>4.8</v>
+        <v>7.1</v>
       </c>
       <c r="H2" t="n">
         <v>32903</v>
@@ -1748,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0586808</v>
+        <v>0.0583259</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>4.9</v>
       </c>
       <c r="H3" t="n">
         <v>32903</v>
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0573021</v>
+        <v>0.0573944</v>
       </c>
       <c r="G4" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="H4" t="n">
         <v>32903</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0584394</v>
+        <v>0.059368</v>
       </c>
       <c r="G5" t="n">
-        <v>7.2</v>
+        <v>4.8</v>
       </c>
       <c r="H5" t="n">
         <v>32903</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0583964</v>
+        <v>0.0582944</v>
       </c>
       <c r="G6" t="n">
-        <v>7.1</v>
+        <v>4.8</v>
       </c>
       <c r="H6" t="n">
         <v>32903</v>
@@ -1872,7 +1872,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0583155</v>
+        <v>0.0604779</v>
       </c>
       <c r="G7" t="n">
         <v>7.3</v>
@@ -1903,7 +1903,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0584049</v>
+        <v>0.0571994</v>
       </c>
       <c r="G8" t="n">
         <v>7.3</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0616618</v>
+        <v>0.0583521</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>7.3</v>
       </c>
       <c r="H9" t="n">
         <v>32903</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0572343</v>
+        <v>0.0583924</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H10" t="n">
         <v>32903</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0583248</v>
+        <v>0.0573216</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="H11" t="n">
         <v>32903</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05862413</v>
+        <v>0.05834324999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.76</v>
+        <v>6.510000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>32903</v>

--- a/experiments/nrp_sat_scl_exp_results.xlsx
+++ b/experiments/nrp_sat_scl_exp_results.xlsx
@@ -490,10 +490,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0284412</v>
+        <v>0.0284566</v>
       </c>
       <c r="G2" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="H2" t="n">
         <v>10478</v>
@@ -521,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0284271</v>
+        <v>0.0284523</v>
       </c>
       <c r="G3" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="H3" t="n">
         <v>10478</v>
@@ -552,10 +552,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0284417</v>
+        <v>0.02848</v>
       </c>
       <c r="G4" t="n">
-        <v>7.1</v>
+        <v>5.7</v>
       </c>
       <c r="H4" t="n">
         <v>10478</v>
@@ -583,10 +583,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0284474</v>
+        <v>0.0284566</v>
       </c>
       <c r="G5" t="n">
-        <v>7.1</v>
+        <v>5.6</v>
       </c>
       <c r="H5" t="n">
         <v>10478</v>
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0284267</v>
+        <v>0.0284692</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="H6" t="n">
         <v>10478</v>
@@ -645,10 +645,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0284396</v>
+        <v>0.0284842</v>
       </c>
       <c r="G7" t="n">
-        <v>7.2</v>
+        <v>5.6</v>
       </c>
       <c r="H7" t="n">
         <v>10478</v>
@@ -676,10 +676,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0284707</v>
+        <v>0.0284033</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>5.6</v>
       </c>
       <c r="H8" t="n">
         <v>10478</v>
@@ -707,10 +707,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0284815</v>
+        <v>0.0286137</v>
       </c>
       <c r="G9" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H9" t="n">
         <v>10478</v>
@@ -738,10 +738,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0284781</v>
+        <v>0.028453</v>
       </c>
       <c r="G10" t="n">
-        <v>4.9</v>
+        <v>5.6</v>
       </c>
       <c r="H10" t="n">
         <v>10478</v>
@@ -769,10 +769,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0284429</v>
+        <v>0.0284505</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>5.7</v>
       </c>
       <c r="H11" t="n">
         <v>10478</v>
@@ -802,10 +802,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02844969</v>
+        <v>0.02847193999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>6.76</v>
+        <v>5.630000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>10478</v>
@@ -899,10 +899,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.039038</v>
+        <v>0.0381096</v>
       </c>
       <c r="G2" t="n">
-        <v>7.3</v>
+        <v>8.6</v>
       </c>
       <c r="H2" t="n">
         <v>18297</v>
@@ -930,10 +930,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0391257</v>
+        <v>0.0390949</v>
       </c>
       <c r="G3" t="n">
-        <v>4.8</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H3" t="n">
         <v>18297</v>
@@ -961,10 +961,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0391305</v>
+        <v>0.039149</v>
       </c>
       <c r="G4" t="n">
-        <v>4.9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H4" t="n">
         <v>18297</v>
@@ -992,10 +992,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0391746</v>
+        <v>0.0381007</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>8.6</v>
       </c>
       <c r="H5" t="n">
         <v>18297</v>
@@ -1023,10 +1023,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0391025</v>
+        <v>0.0381149</v>
       </c>
       <c r="G6" t="n">
-        <v>4.9</v>
+        <v>8.6</v>
       </c>
       <c r="H6" t="n">
         <v>18297</v>
@@ -1054,10 +1054,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0381282</v>
+        <v>0.0402652</v>
       </c>
       <c r="G7" t="n">
-        <v>4.8</v>
+        <v>8.1</v>
       </c>
       <c r="H7" t="n">
         <v>18297</v>
@@ -1085,10 +1085,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0391789</v>
+        <v>0.0379945</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H8" t="n">
         <v>18297</v>
@@ -1116,10 +1116,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0380992</v>
+        <v>0.0393364</v>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="H9" t="n">
         <v>18297</v>
@@ -1147,10 +1147,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.039116</v>
+        <v>0.0380367</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H10" t="n">
         <v>18297</v>
@@ -1178,10 +1178,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0391796</v>
+        <v>0.0391196</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="H11" t="n">
         <v>18297</v>
@@ -1211,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03892731999999999</v>
+        <v>0.03873215</v>
       </c>
       <c r="G12" t="n">
-        <v>6.069999999999999</v>
+        <v>8.559999999999999</v>
       </c>
       <c r="H12" t="n">
         <v>18297</v>
@@ -1308,10 +1308,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0476556</v>
+        <v>0.0476614</v>
       </c>
       <c r="G2" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="H2" t="n">
         <v>24927</v>
@@ -1339,10 +1339,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.047648</v>
+        <v>0.0477105</v>
       </c>
       <c r="G3" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
       </c>
       <c r="H3" t="n">
         <v>24927</v>
@@ -1370,10 +1370,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0476859</v>
+        <v>0.04763</v>
       </c>
       <c r="G4" t="n">
-        <v>4.8</v>
+        <v>11.5</v>
       </c>
       <c r="H4" t="n">
         <v>24927</v>
@@ -1401,10 +1401,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0487947</v>
+        <v>0.0476167</v>
       </c>
       <c r="G5" t="n">
-        <v>7.3</v>
+        <v>11.4</v>
       </c>
       <c r="H5" t="n">
         <v>24927</v>
@@ -1432,10 +1432,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0487122</v>
+        <v>0.0487558</v>
       </c>
       <c r="G6" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
       </c>
       <c r="H6" t="n">
         <v>24927</v>
@@ -1463,10 +1463,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0498972</v>
+        <v>0.0478049</v>
       </c>
       <c r="G7" t="n">
-        <v>7.3</v>
+        <v>11.6</v>
       </c>
       <c r="H7" t="n">
         <v>24927</v>
@@ -1494,10 +1494,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0476202</v>
+        <v>0.0498273</v>
       </c>
       <c r="G8" t="n">
-        <v>7.4</v>
+        <v>11.5</v>
       </c>
       <c r="H8" t="n">
         <v>24927</v>
@@ -1525,10 +1525,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0486506</v>
+        <v>0.0477081</v>
       </c>
       <c r="G9" t="n">
-        <v>7.2</v>
+        <v>11.6</v>
       </c>
       <c r="H9" t="n">
         <v>24927</v>
@@ -1556,10 +1556,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0487429</v>
+        <v>0.0478189</v>
       </c>
       <c r="G10" t="n">
-        <v>7.3</v>
+        <v>11.4</v>
       </c>
       <c r="H10" t="n">
         <v>24927</v>
@@ -1587,10 +1587,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0476622</v>
+        <v>0.0476825</v>
       </c>
       <c r="G11" t="n">
-        <v>7.3</v>
+        <v>11.5</v>
       </c>
       <c r="H11" t="n">
         <v>24927</v>
@@ -1620,10 +1620,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04830695</v>
+        <v>0.04802161</v>
       </c>
       <c r="G12" t="n">
-        <v>7.040000000000001</v>
+        <v>11.51</v>
       </c>
       <c r="H12" t="n">
         <v>24927</v>
@@ -1717,10 +1717,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0583064</v>
+        <v>0.058346</v>
       </c>
       <c r="G2" t="n">
-        <v>7.1</v>
+        <v>13.3</v>
       </c>
       <c r="H2" t="n">
         <v>32903</v>
@@ -1748,10 +1748,10 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0583259</v>
+        <v>0.0572606</v>
       </c>
       <c r="G3" t="n">
-        <v>4.9</v>
+        <v>13.3</v>
       </c>
       <c r="H3" t="n">
         <v>32903</v>
@@ -1779,10 +1779,10 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0573944</v>
+        <v>0.057294</v>
       </c>
       <c r="G4" t="n">
-        <v>7.2</v>
+        <v>13.3</v>
       </c>
       <c r="H4" t="n">
         <v>32903</v>
@@ -1810,10 +1810,10 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.059368</v>
+        <v>0.0616626</v>
       </c>
       <c r="G5" t="n">
-        <v>4.8</v>
+        <v>13.2</v>
       </c>
       <c r="H5" t="n">
         <v>32903</v>
@@ -1841,10 +1841,10 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0582944</v>
+        <v>0.0583347</v>
       </c>
       <c r="G6" t="n">
-        <v>4.8</v>
+        <v>13.2</v>
       </c>
       <c r="H6" t="n">
         <v>32903</v>
@@ -1872,10 +1872,10 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0604779</v>
+        <v>0.0574581</v>
       </c>
       <c r="G7" t="n">
-        <v>7.3</v>
+        <v>13.2</v>
       </c>
       <c r="H7" t="n">
         <v>32903</v>
@@ -1903,10 +1903,10 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0571994</v>
+        <v>0.0572373</v>
       </c>
       <c r="G8" t="n">
-        <v>7.3</v>
+        <v>13.3</v>
       </c>
       <c r="H8" t="n">
         <v>32903</v>
@@ -1934,10 +1934,10 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0583521</v>
+        <v>0.0604873</v>
       </c>
       <c r="G9" t="n">
-        <v>7.3</v>
+        <v>13.3</v>
       </c>
       <c r="H9" t="n">
         <v>32903</v>
@@ -1965,10 +1965,10 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0583924</v>
+        <v>0.058366</v>
       </c>
       <c r="G10" t="n">
-        <v>7.2</v>
+        <v>13.2</v>
       </c>
       <c r="H10" t="n">
         <v>32903</v>
@@ -1996,10 +1996,10 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0573216</v>
+        <v>0.0604756</v>
       </c>
       <c r="G11" t="n">
-        <v>7.2</v>
+        <v>13.3</v>
       </c>
       <c r="H11" t="n">
         <v>32903</v>
@@ -2029,10 +2029,10 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05834324999999999</v>
+        <v>0.05869222</v>
       </c>
       <c r="G12" t="n">
-        <v>6.510000000000001</v>
+        <v>13.26</v>
       </c>
       <c r="H12" t="n">
         <v>32903</v>

--- a/experiments/nrp_sat_scl_exp_results.xlsx
+++ b/experiments/nrp_sat_scl_exp_results.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,20 +452,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -490,17 +500,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0284566</v>
+        <v>0.0112384</v>
       </c>
       <c r="G2" t="n">
-        <v>5.6</v>
+        <v>0.00429377</v>
       </c>
       <c r="H2" t="n">
-        <v>10478</v>
+        <v>0.0155321</v>
       </c>
       <c r="I2" t="n">
-        <v>2611</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -521,17 +533,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0284523</v>
+        <v>0.0112592</v>
       </c>
       <c r="G3" t="n">
-        <v>5.6</v>
+        <v>0.00439118</v>
       </c>
       <c r="H3" t="n">
-        <v>10478</v>
+        <v>0.0156504</v>
       </c>
       <c r="I3" t="n">
-        <v>2611</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -552,17 +566,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02848</v>
+        <v>0.0114624</v>
       </c>
       <c r="G4" t="n">
+        <v>0.00429688</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0157593</v>
+      </c>
+      <c r="I4" t="n">
         <v>5.7</v>
       </c>
-      <c r="H4" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -583,17 +599,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0284566</v>
+        <v>0.0117934</v>
       </c>
       <c r="G5" t="n">
+        <v>0.00436984</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.0161632</v>
+      </c>
+      <c r="I5" t="n">
         <v>5.6</v>
       </c>
-      <c r="H5" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -614,17 +632,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0284692</v>
+        <v>0.0113563</v>
       </c>
       <c r="G6" t="n">
+        <v>0.00441622</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0157726</v>
+      </c>
+      <c r="I6" t="n">
         <v>5.7</v>
       </c>
-      <c r="H6" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I6" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -645,17 +665,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0284842</v>
+        <v>0.0111856</v>
       </c>
       <c r="G7" t="n">
+        <v>0.00431165</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.0154972</v>
+      </c>
+      <c r="I7" t="n">
         <v>5.6</v>
       </c>
-      <c r="H7" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I7" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -676,17 +698,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0284033</v>
+        <v>0.0113704</v>
       </c>
       <c r="G8" t="n">
+        <v>0.00426493</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0156353</v>
+      </c>
+      <c r="I8" t="n">
         <v>5.6</v>
       </c>
-      <c r="H8" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I8" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -707,17 +731,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0286137</v>
+        <v>0.0112725</v>
       </c>
       <c r="G9" t="n">
-        <v>5.6</v>
+        <v>0.00425964</v>
       </c>
       <c r="H9" t="n">
-        <v>10478</v>
+        <v>0.0155321</v>
       </c>
       <c r="I9" t="n">
-        <v>2611</v>
-      </c>
+        <v>5.7</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -738,17 +764,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.028453</v>
+        <v>0.0112101</v>
       </c>
       <c r="G10" t="n">
+        <v>0.0042701</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0.0154802</v>
+      </c>
+      <c r="I10" t="n">
         <v>5.6</v>
       </c>
-      <c r="H10" t="n">
-        <v>10478</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2611</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -769,17 +797,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0284505</v>
+        <v>0.0110138</v>
       </c>
       <c r="G11" t="n">
-        <v>5.7</v>
+        <v>0.00425581</v>
       </c>
       <c r="H11" t="n">
-        <v>10478</v>
+        <v>0.0152696</v>
       </c>
       <c r="I11" t="n">
-        <v>2611</v>
-      </c>
+        <v>5.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -802,17 +832,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.02847193999999999</v>
+        <v>0.01131621</v>
       </c>
       <c r="G12" t="n">
-        <v>5.630000000000001</v>
+        <v>0.004313002</v>
       </c>
       <c r="H12" t="n">
-        <v>10478</v>
+        <v>0.0156292</v>
       </c>
       <c r="I12" t="n">
-        <v>2611</v>
-      </c>
+        <v>5.65</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -825,7 +857,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -861,20 +893,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -899,17 +941,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0381096</v>
+        <v>0.0202972</v>
       </c>
       <c r="G2" t="n">
-        <v>8.6</v>
+        <v>0.00517888</v>
       </c>
       <c r="H2" t="n">
-        <v>18297</v>
+        <v>0.0254761</v>
       </c>
       <c r="I2" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.300000000000001</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -930,17 +974,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0390949</v>
+        <v>0.0199553</v>
       </c>
       <c r="G3" t="n">
-        <v>8.699999999999999</v>
+        <v>0.00513706</v>
       </c>
       <c r="H3" t="n">
-        <v>18297</v>
+        <v>0.0250924</v>
       </c>
       <c r="I3" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.6</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -961,17 +1007,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.039149</v>
+        <v>0.0203587</v>
       </c>
       <c r="G4" t="n">
-        <v>8.699999999999999</v>
+        <v>0.00506974</v>
       </c>
       <c r="H4" t="n">
-        <v>18297</v>
+        <v>0.0254285</v>
       </c>
       <c r="I4" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -992,17 +1040,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0381007</v>
+        <v>0.0196807</v>
       </c>
       <c r="G5" t="n">
-        <v>8.6</v>
+        <v>0.00486002</v>
       </c>
       <c r="H5" t="n">
-        <v>18297</v>
+        <v>0.0245407</v>
       </c>
       <c r="I5" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1023,17 +1073,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0381149</v>
+        <v>0.0198155</v>
       </c>
       <c r="G6" t="n">
+        <v>0.00478992</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0246054</v>
+      </c>
+      <c r="I6" t="n">
         <v>8.6</v>
       </c>
-      <c r="H6" t="n">
-        <v>18297</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4561</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1054,17 +1106,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0402652</v>
+        <v>0.0194543</v>
       </c>
       <c r="G7" t="n">
-        <v>8.1</v>
+        <v>0.00478416</v>
       </c>
       <c r="H7" t="n">
-        <v>18297</v>
+        <v>0.0242385</v>
       </c>
       <c r="I7" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1085,17 +1139,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0379945</v>
+        <v>0.0195151</v>
       </c>
       <c r="G8" t="n">
+        <v>0.00491374</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.0244289</v>
+      </c>
+      <c r="I8" t="n">
         <v>8.699999999999999</v>
       </c>
-      <c r="H8" t="n">
-        <v>18297</v>
-      </c>
-      <c r="I8" t="n">
-        <v>4561</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1116,17 +1172,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0393364</v>
+        <v>0.0200908</v>
       </c>
       <c r="G9" t="n">
-        <v>8.199999999999999</v>
+        <v>0.004941</v>
       </c>
       <c r="H9" t="n">
-        <v>18297</v>
+        <v>0.0250318</v>
       </c>
       <c r="I9" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.699999999999999</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1147,17 +1205,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0380367</v>
+        <v>0.0200334</v>
       </c>
       <c r="G10" t="n">
-        <v>8.699999999999999</v>
+        <v>0.00491252</v>
       </c>
       <c r="H10" t="n">
-        <v>18297</v>
+        <v>0.0249459</v>
       </c>
       <c r="I10" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.6</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1178,17 +1238,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0391196</v>
+        <v>0.0200459</v>
       </c>
       <c r="G11" t="n">
-        <v>8.699999999999999</v>
+        <v>0.00501891</v>
       </c>
       <c r="H11" t="n">
-        <v>18297</v>
+        <v>0.0250648</v>
       </c>
       <c r="I11" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1211,17 +1273,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.03873215</v>
+        <v>0.01992469</v>
       </c>
       <c r="G12" t="n">
-        <v>8.559999999999999</v>
+        <v>0.004960595</v>
       </c>
       <c r="H12" t="n">
-        <v>18297</v>
+        <v>0.0248853</v>
       </c>
       <c r="I12" t="n">
-        <v>4561</v>
-      </c>
+        <v>8.569999999999999</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1234,7 +1298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1270,20 +1334,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1308,17 +1382,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0476614</v>
+        <v>0.0276765</v>
       </c>
       <c r="G2" t="n">
-        <v>11.6</v>
+        <v>0.00511364</v>
       </c>
       <c r="H2" t="n">
-        <v>24927</v>
+        <v>0.0327902</v>
       </c>
       <c r="I2" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1339,17 +1415,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0477105</v>
+        <v>0.0273391</v>
       </c>
       <c r="G3" t="n">
+        <v>0.00514643</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0324856</v>
+      </c>
+      <c r="I3" t="n">
         <v>11.5</v>
       </c>
-      <c r="H3" t="n">
-        <v>24927</v>
-      </c>
-      <c r="I3" t="n">
-        <v>6168</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1370,17 +1448,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.04763</v>
+        <v>0.0275934</v>
       </c>
       <c r="G4" t="n">
-        <v>11.5</v>
+        <v>0.00510339</v>
       </c>
       <c r="H4" t="n">
-        <v>24927</v>
+        <v>0.0326968</v>
       </c>
       <c r="I4" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1401,17 +1481,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0476167</v>
+        <v>0.0281174</v>
       </c>
       <c r="G5" t="n">
-        <v>11.4</v>
+        <v>0.00519673</v>
       </c>
       <c r="H5" t="n">
-        <v>24927</v>
+        <v>0.0333142</v>
       </c>
       <c r="I5" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1432,17 +1514,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0487558</v>
+        <v>0.0275159</v>
       </c>
       <c r="G6" t="n">
+        <v>0.00503877</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0.0325547</v>
+      </c>
+      <c r="I6" t="n">
         <v>11.5</v>
       </c>
-      <c r="H6" t="n">
-        <v>24927</v>
-      </c>
-      <c r="I6" t="n">
-        <v>6168</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1463,17 +1547,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0478049</v>
+        <v>0.0282104</v>
       </c>
       <c r="G7" t="n">
-        <v>11.6</v>
+        <v>0.00524271</v>
       </c>
       <c r="H7" t="n">
-        <v>24927</v>
+        <v>0.0334531</v>
       </c>
       <c r="I7" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1494,17 +1580,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0498273</v>
+        <v>0.0273908</v>
       </c>
       <c r="G8" t="n">
-        <v>11.5</v>
+        <v>0.00508815</v>
       </c>
       <c r="H8" t="n">
-        <v>24927</v>
+        <v>0.032479</v>
       </c>
       <c r="I8" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.4</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1525,17 +1613,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0477081</v>
+        <v>0.0278732</v>
       </c>
       <c r="G9" t="n">
+        <v>0.00526387</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0331371</v>
+      </c>
+      <c r="I9" t="n">
         <v>11.6</v>
       </c>
-      <c r="H9" t="n">
-        <v>24927</v>
-      </c>
-      <c r="I9" t="n">
-        <v>6168</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1556,17 +1646,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.0478189</v>
+        <v>0.0275159</v>
       </c>
       <c r="G10" t="n">
-        <v>11.4</v>
+        <v>0.00506259</v>
       </c>
       <c r="H10" t="n">
-        <v>24927</v>
+        <v>0.0325785</v>
       </c>
       <c r="I10" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.5</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1587,17 +1679,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0476825</v>
+        <v>0.0275894</v>
       </c>
       <c r="G11" t="n">
-        <v>11.5</v>
+        <v>0.00506641</v>
       </c>
       <c r="H11" t="n">
-        <v>24927</v>
+        <v>0.0326558</v>
       </c>
       <c r="I11" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.6</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -1620,17 +1714,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.04802161</v>
+        <v>0.0276822</v>
       </c>
       <c r="G12" t="n">
-        <v>11.51</v>
+        <v>0.005132269</v>
       </c>
       <c r="H12" t="n">
-        <v>24927</v>
+        <v>0.0328145</v>
       </c>
       <c r="I12" t="n">
-        <v>6168</v>
-      </c>
+        <v>11.49</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1643,7 +1739,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1679,20 +1775,30 @@
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>wall_time_sec</t>
+          <t>encoding_time_sec</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>solving_time_sec</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>total_time_sec</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
           <t>peak_memory_mb</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>total_clauses</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>total_variables</t>
         </is>
@@ -1717,17 +1823,19 @@
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.058346</v>
+        <v>0.036243</v>
       </c>
       <c r="G2" t="n">
-        <v>13.3</v>
+        <v>0.00527944</v>
       </c>
       <c r="H2" t="n">
-        <v>32903</v>
+        <v>0.0415225</v>
       </c>
       <c r="I2" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -1748,17 +1856,19 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.0572606</v>
+        <v>0.0368803</v>
       </c>
       <c r="G3" t="n">
+        <v>0.00543953</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.0423199</v>
+      </c>
+      <c r="I3" t="n">
         <v>13.3</v>
       </c>
-      <c r="H3" t="n">
-        <v>32903</v>
-      </c>
-      <c r="I3" t="n">
-        <v>8157</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1779,17 +1889,19 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.057294</v>
+        <v>0.0362934</v>
       </c>
       <c r="G4" t="n">
+        <v>0.00580882</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.0421022</v>
+      </c>
+      <c r="I4" t="n">
         <v>13.3</v>
       </c>
-      <c r="H4" t="n">
-        <v>32903</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8157</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -1810,17 +1922,19 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0616626</v>
+        <v>0.0367109</v>
       </c>
       <c r="G5" t="n">
-        <v>13.2</v>
+        <v>0.00536601</v>
       </c>
       <c r="H5" t="n">
-        <v>32903</v>
+        <v>0.0420769</v>
       </c>
       <c r="I5" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1841,17 +1955,19 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0583347</v>
+        <v>0.0376996</v>
       </c>
       <c r="G6" t="n">
-        <v>13.2</v>
+        <v>0.00590281</v>
       </c>
       <c r="H6" t="n">
-        <v>32903</v>
+        <v>0.0436024</v>
       </c>
       <c r="I6" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -1872,17 +1988,19 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0574581</v>
+        <v>0.0367168</v>
       </c>
       <c r="G7" t="n">
-        <v>13.2</v>
+        <v>0.00584487</v>
       </c>
       <c r="H7" t="n">
-        <v>32903</v>
+        <v>0.0425617</v>
       </c>
       <c r="I7" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.3</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -1903,17 +2021,19 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.0572373</v>
+        <v>0.0372151</v>
       </c>
       <c r="G8" t="n">
+        <v>0.00635291</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.043568</v>
+      </c>
+      <c r="I8" t="n">
         <v>13.3</v>
       </c>
-      <c r="H8" t="n">
-        <v>32903</v>
-      </c>
-      <c r="I8" t="n">
-        <v>8157</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -1934,17 +2054,19 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0604873</v>
+        <v>0.036205</v>
       </c>
       <c r="G9" t="n">
+        <v>0.00554181</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0.0417468</v>
+      </c>
+      <c r="I9" t="n">
         <v>13.3</v>
       </c>
-      <c r="H9" t="n">
-        <v>32903</v>
-      </c>
-      <c r="I9" t="n">
-        <v>8157</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -1965,17 +2087,19 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.058366</v>
+        <v>0.0367507</v>
       </c>
       <c r="G10" t="n">
-        <v>13.2</v>
+        <v>0.00565785</v>
       </c>
       <c r="H10" t="n">
-        <v>32903</v>
+        <v>0.0424085</v>
       </c>
       <c r="I10" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -1996,17 +2120,19 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0604756</v>
+        <v>0.0362606</v>
       </c>
       <c r="G11" t="n">
-        <v>13.3</v>
+        <v>0.00536924</v>
       </c>
       <c r="H11" t="n">
-        <v>32903</v>
+        <v>0.0416299</v>
       </c>
       <c r="I11" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.4</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2029,17 +2155,19 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.05869222</v>
+        <v>0.03669753999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>13.26</v>
+        <v>0.005656329</v>
       </c>
       <c r="H12" t="n">
-        <v>32903</v>
+        <v>0.04235388</v>
       </c>
       <c r="I12" t="n">
-        <v>8157</v>
-      </c>
+        <v>13.35</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
